--- a/Listas de precios/mayorista/TENDEDERO RODANTE LISDISMAY.xlsx
+++ b/Listas de precios/mayorista/TENDEDERO RODANTE LISDISMAY.xlsx
@@ -773,7 +773,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="15">
@@ -882,13 +882,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B43:C43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/mayorista/TENDEDERO RODANTE LISDISMAY.xlsx
+++ b/Listas de precios/mayorista/TENDEDERO RODANTE LISDISMAY.xlsx
@@ -773,7 +773,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="15">
@@ -882,13 +882,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/mayorista/TENDEDERO RODANTE LISDISMAY.xlsx
+++ b/Listas de precios/mayorista/TENDEDERO RODANTE LISDISMAY.xlsx
@@ -773,7 +773,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="15">
@@ -882,13 +882,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B43:C43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
